--- a/Assets/Levels/PlasmaCannons.xlsx
+++ b/Assets/Levels/PlasmaCannons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F1DB8-B9C1-4661-8166-4FC80CA80A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD0325-CD3A-40AD-A718-368B7C6B2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1">
         <v>128</v>
@@ -422,8 +422,8 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>+A1+62*5</f>
-        <v>310</v>
+        <f>+A1+62*7</f>
+        <v>868</v>
       </c>
       <c r="B2" s="1">
         <v>128</v>
@@ -434,8 +434,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">+A2+62*5</f>
-        <v>620</v>
+        <f>+A2+62*7</f>
+        <v>1302</v>
       </c>
       <c r="B3" s="1">
         <v>128</v>
@@ -446,8 +446,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>930</v>
+        <f>+A3+62*7</f>
+        <v>1736</v>
       </c>
       <c r="B4" s="1">
         <v>128</v>
@@ -458,8 +458,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>1240</v>
+        <f>+A4+62*7</f>
+        <v>2170</v>
       </c>
       <c r="B5" s="1">
         <v>128</v>
@@ -470,8 +470,8 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>1550</v>
+        <f>+A5+62*7</f>
+        <v>2604</v>
       </c>
       <c r="B6" s="1">
         <v>128</v>
@@ -482,8 +482,8 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1860</v>
+        <f>+A6+62*7</f>
+        <v>3038</v>
       </c>
       <c r="B7" s="1">
         <v>128</v>
@@ -494,8 +494,8 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>2170</v>
+        <f>+A7+62*7</f>
+        <v>3472</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
@@ -506,8 +506,8 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2480</v>
+        <f>+A8+62*7</f>
+        <v>3906</v>
       </c>
       <c r="B9" s="1">
         <v>128</v>
@@ -518,8 +518,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>2790</v>
+        <f>+A9+62*7</f>
+        <v>4340</v>
       </c>
       <c r="B10" s="1">
         <v>128</v>
@@ -530,8 +530,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>5280</v>
       </c>
       <c r="B11" s="1">
         <v>128</v>
@@ -542,8 +541,8 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>3410</v>
+        <f>+A11+62*7</f>
+        <v>5714</v>
       </c>
       <c r="B12" s="1">
         <v>128</v>
@@ -554,8 +553,8 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>3720</v>
+        <f>+A12+62*7</f>
+        <v>6148</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
@@ -566,8 +565,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>4030</v>
+        <f>+A13+62*7</f>
+        <v>6582</v>
       </c>
       <c r="B14" s="1">
         <v>128</v>
@@ -578,8 +577,8 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>4340</v>
+        <f>+A14+62*7</f>
+        <v>7016</v>
       </c>
       <c r="B15" s="1">
         <v>128</v>
@@ -590,8 +589,8 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>4650</v>
+        <f>+A15+62*7</f>
+        <v>7450</v>
       </c>
       <c r="B16" s="1">
         <v>128</v>
@@ -602,205 +601,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>4960</v>
+        <f>+A16+62*7</f>
+        <v>7884</v>
       </c>
       <c r="B17" s="1">
         <v>128</v>
       </c>
       <c r="C17" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>5270</v>
-      </c>
-      <c r="B18" s="1">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>5580</v>
-      </c>
-      <c r="B19" s="1">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>5890</v>
-      </c>
-      <c r="B20" s="1">
-        <v>128</v>
-      </c>
-      <c r="C20" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>6200</v>
-      </c>
-      <c r="B21" s="1">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>6510</v>
-      </c>
-      <c r="B22" s="1">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>6820</v>
-      </c>
-      <c r="B23" s="1">
-        <v>128</v>
-      </c>
-      <c r="C23" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>7130</v>
-      </c>
-      <c r="B24" s="1">
-        <v>128</v>
-      </c>
-      <c r="C24" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>7440</v>
-      </c>
-      <c r="B25" s="1">
-        <v>128</v>
-      </c>
-      <c r="C25" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>7750</v>
-      </c>
-      <c r="B26" s="1">
-        <v>128</v>
-      </c>
-      <c r="C26" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>8060</v>
-      </c>
-      <c r="B27" s="1">
-        <v>128</v>
-      </c>
-      <c r="C27" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>8370</v>
-      </c>
-      <c r="B28" s="1">
-        <v>128</v>
-      </c>
-      <c r="C28" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>8680</v>
-      </c>
-      <c r="B29" s="1">
-        <v>128</v>
-      </c>
-      <c r="C29" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>8990</v>
-      </c>
-      <c r="B30" s="1">
-        <v>128</v>
-      </c>
-      <c r="C30" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>9300</v>
-      </c>
-      <c r="B31" s="1">
-        <v>128</v>
-      </c>
-      <c r="C31" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>9610</v>
-      </c>
-      <c r="B32" s="1">
-        <v>128</v>
-      </c>
-      <c r="C32" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>9920</v>
-      </c>
-      <c r="B33" s="1">
-        <v>128</v>
-      </c>
-      <c r="C33" s="1">
         <v>200</v>
       </c>
     </row>
